--- a/assets/docs/synthese.xlsx
+++ b/assets/docs/synthese.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spaceworking\Desktop\ME-E4-HTML-PORTFOLIO\assets\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spaceworking\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC60163-7A20-4426-90F4-CCC66966E955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DBAD38B-EB05-4DF0-BF05-2FBA1B0691C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -113,9 +113,6 @@
     <t>SESSION 2025</t>
   </si>
   <si>
-    <t>Adresse URL du portfolio : https://elieworkspace.github.io/ME-E4-HTML-PORTFOLIO/ || https://eyesdeep.com/ || Code : ufhEWKbts#==xy#.]EL'Z!.v}1F7&amp;Mi+%JN}@TIJDH{HZQ@8+6</t>
-  </si>
-  <si>
     <t>VELIKO APPLICATION -  JAVA</t>
   </si>
   <si>
@@ -164,6 +161,19 @@
         <family val="2"/>
       </rPr>
       <t>02442806758</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Adresse URL du portfolio : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://elieworkspace.github.io</t>
     </r>
   </si>
 </sst>
@@ -2080,8 +2090,8 @@
   </sheetPr>
   <dimension ref="A1:AQ78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="64" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" zoomScale="64" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2121,14 +2131,14 @@
     </row>
     <row r="3" spans="1:43" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="37" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="38"/>
       <c r="C3" s="38"/>
       <c r="D3" s="38"/>
       <c r="E3" s="39"/>
       <c r="F3" s="43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G3" s="38"/>
       <c r="H3" s="44"/>
@@ -2138,7 +2148,7 @@
     </row>
     <row r="4" spans="1:43" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="40" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" s="41"/>
       <c r="C4" s="41"/>
@@ -2156,7 +2166,7 @@
     </row>
     <row r="5" spans="1:43" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="34" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B5" s="35"/>
       <c r="C5" s="35"/>
@@ -2298,7 +2308,7 @@
     </row>
     <row r="9" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="14"/>
@@ -2345,7 +2355,7 @@
     </row>
     <row r="10" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="15"/>
@@ -2391,7 +2401,7 @@
     </row>
     <row r="11" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="15"/>
@@ -2665,7 +2675,7 @@
     </row>
     <row r="17" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="15"/>
@@ -3029,7 +3039,7 @@
     </row>
     <row r="25" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="15"/>

--- a/assets/docs/synthese.xlsx
+++ b/assets/docs/synthese.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spaceworking\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DBAD38B-EB05-4DF0-BF05-2FBA1B0691C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A518E86-6730-4B41-B9FE-4BF972004C1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Tableau de synthèse Épreuve E4" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tableau de synthèse Épreuve E4'!$A$1:$H$32</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tableau de synthèse Épreuve E4'!$A$1:$H$31</definedName>
   </definedNames>
   <calcPr calcId="101716"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>Gérer le patrimoine informatique</t>
   </si>
@@ -113,12 +113,6 @@
     <t>SESSION 2025</t>
   </si>
   <si>
-    <t>VELIKO APPLICATION -  JAVA</t>
-  </si>
-  <si>
-    <t>VELIKO WEB - PHP</t>
-  </si>
-  <si>
     <t>PORTFOLIO</t>
   </si>
   <si>
@@ -175,6 +169,18 @@
       </rPr>
       <t>https://elieworkspace.github.io</t>
     </r>
+  </si>
+  <si>
+    <t>VELIKO APPLICATION</t>
+  </si>
+  <si>
+    <t>NEXEO GROUP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EAGLEDEEP </t>
+  </si>
+  <si>
+    <t>RAPPORT DE CONNEXION ADMIN AUTOMATIQUE</t>
   </si>
 </sst>
 </file>
@@ -651,7 +657,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -784,6 +790,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -908,13 +917,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>486172</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>109139</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>782577</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>357755</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1104,105 +1113,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>486172</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>79375</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>782577</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>327991</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="Signe de multiplication 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B728FF2F-B411-4AAA-8C7E-C74D5740AE6B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10060781" y="8622109"/>
-          <a:ext cx="296405" cy="248616"/>
-        </a:xfrm>
-        <a:prstGeom prst="mathMultiply">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="dk1"/>
-        </a:solidFill>
-        <a:ln w="0" cmpd="dbl">
-          <a:gradFill>
-            <a:gsLst>
-              <a:gs pos="0">
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="16000"/>
-                  <a:lumOff val="84000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="83000">
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="45000"/>
-                  <a:lumOff val="55000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="100000">
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="30000"/>
-                  <a:lumOff val="70000"/>
-                </a:schemeClr>
-              </a:gs>
-            </a:gsLst>
-            <a:lin ang="5400000" scaled="1"/>
-          </a:gradFill>
-          <a:extLst>
-            <a:ext uri="{C807C97D-BFC1-408E-A445-0C87EB9F89A2}">
-              <ask:lineSketchStyleProps xmlns:ask="http://schemas.microsoft.com/office/drawing/2018/sketchyshapes">
-                <ask:type>
-                  <ask:lineSketchNone/>
-                </ask:type>
-              </ask:lineSketchStyleProps>
-            </a:ext>
-          </a:extLst>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="fr-FR" sz="1100">
-            <a:noFill/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>456407</xdr:colOff>
       <xdr:row>8</xdr:row>
@@ -1303,22 +1213,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>456406</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>99218</xdr:rowOff>
+      <xdr:colOff>446485</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>752811</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>347834</xdr:rowOff>
+      <xdr:colOff>742890</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>367678</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="Signe de multiplication 16">
+        <xdr:cNvPr id="18" name="Signe de multiplication 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B723D2A5-99AB-49D8-8469-01AE0C7549D6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B211C292-8AB1-4D8A-91A5-302F38FB9855}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1326,7 +1236,106 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11330781" y="8641952"/>
+          <a:off x="11320860" y="11926093"/>
+          <a:ext cx="296405" cy="248616"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathMultiply">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="dk1"/>
+        </a:solidFill>
+        <a:ln w="0" cmpd="dbl">
+          <a:gradFill>
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="16000"/>
+                  <a:lumOff val="84000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="83000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="45000"/>
+                  <a:lumOff val="55000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="30000"/>
+                  <a:lumOff val="70000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="1"/>
+          </a:gradFill>
+          <a:extLst>
+            <a:ext uri="{C807C97D-BFC1-408E-A445-0C87EB9F89A2}">
+              <ask:lineSketchStyleProps xmlns:ask="http://schemas.microsoft.com/office/drawing/2018/sketchyshapes">
+                <ask:type>
+                  <ask:lineSketchNone/>
+                </ask:type>
+              </ask:lineSketchStyleProps>
+            </a:ext>
+          </a:extLst>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-FR" sz="1100">
+            <a:noFill/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>466328</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>762733</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>367679</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="Signe de multiplication 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94256768-BF15-4E0E-89F4-5D4FE5AC6BF9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7441406" y="11926094"/>
           <a:ext cx="296405" cy="248616"/>
         </a:xfrm>
         <a:prstGeom prst="mathMultiply">
@@ -1403,21 +1412,21 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>446485</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>119062</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>742890</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>367678</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="Signe de multiplication 17">
+        <xdr:cNvPr id="46" name="Signe de multiplication 45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B211C292-8AB1-4D8A-91A5-302F38FB9855}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E296BBB5-E48D-45B8-8F57-96B200E1E0EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1502,21 +1511,21 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>466328</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>119063</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>762733</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>367679</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="Signe de multiplication 24">
+        <xdr:cNvPr id="59" name="Signe de multiplication 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94256768-BF15-4E0E-89F4-5D4FE5AC6BF9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB1B42DD-0920-45BC-95D0-5B52C10007A9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1599,23 +1608,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>446485</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>535782</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>742890</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>367678</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>832187</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>367679</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="Signe de multiplication 45">
+        <xdr:cNvPr id="3" name="Signe de multiplication 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E296BBB5-E48D-45B8-8F57-96B200E1E0EE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41D91516-A902-4623-BA74-50DD788677FC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1623,7 +1632,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11320860" y="11926093"/>
+          <a:off x="6211095" y="11926094"/>
           <a:ext cx="296405" cy="248616"/>
         </a:xfrm>
         <a:prstGeom prst="mathMultiply">
@@ -1698,23 +1707,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>466328</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>119063</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>515938</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>762733</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>367679</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>812343</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>367678</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="59" name="Signe de multiplication 58">
+        <xdr:cNvPr id="4" name="Signe de multiplication 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB1B42DD-0920-45BC-95D0-5B52C10007A9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99BC06F0-F1E8-474B-863A-E3EE3619EB9F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1722,7 +1731,898 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7441406" y="11926094"/>
+          <a:off x="6191251" y="15696406"/>
+          <a:ext cx="296405" cy="248616"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathMultiply">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="dk1"/>
+        </a:solidFill>
+        <a:ln w="0" cmpd="dbl">
+          <a:gradFill>
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="16000"/>
+                  <a:lumOff val="84000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="83000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="45000"/>
+                  <a:lumOff val="55000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="30000"/>
+                  <a:lumOff val="70000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="1"/>
+          </a:gradFill>
+          <a:extLst>
+            <a:ext uri="{C807C97D-BFC1-408E-A445-0C87EB9F89A2}">
+              <ask:lineSketchStyleProps xmlns:ask="http://schemas.microsoft.com/office/drawing/2018/sketchyshapes">
+                <ask:type>
+                  <ask:lineSketchNone/>
+                </ask:type>
+              </ask:lineSketchStyleProps>
+            </a:ext>
+          </a:extLst>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-FR" sz="1100">
+            <a:noFill/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>138907</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>772655</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>387523</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Signe de multiplication 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AC8C4CD-5A9D-4F5F-9D56-82F1B952C971}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7451328" y="8175626"/>
+          <a:ext cx="296405" cy="248616"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathMultiply">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="dk1"/>
+        </a:solidFill>
+        <a:ln w="0" cmpd="dbl">
+          <a:gradFill>
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="16000"/>
+                  <a:lumOff val="84000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="83000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="45000"/>
+                  <a:lumOff val="55000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="30000"/>
+                  <a:lumOff val="70000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="1"/>
+          </a:gradFill>
+          <a:extLst>
+            <a:ext uri="{C807C97D-BFC1-408E-A445-0C87EB9F89A2}">
+              <ask:lineSketchStyleProps xmlns:ask="http://schemas.microsoft.com/office/drawing/2018/sketchyshapes">
+                <ask:type>
+                  <ask:lineSketchNone/>
+                </ask:type>
+              </ask:lineSketchStyleProps>
+            </a:ext>
+          </a:extLst>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-FR" sz="1100">
+            <a:noFill/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>426641</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>723046</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>367679</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Signe de multiplication 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD94567A-0CAB-4751-972D-2DD2A2B60559}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8701485" y="15696407"/>
+          <a:ext cx="296405" cy="248616"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathMultiply">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="dk1"/>
+        </a:solidFill>
+        <a:ln w="0" cmpd="dbl">
+          <a:gradFill>
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="16000"/>
+                  <a:lumOff val="84000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="83000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="45000"/>
+                  <a:lumOff val="55000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="30000"/>
+                  <a:lumOff val="70000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="1"/>
+          </a:gradFill>
+          <a:extLst>
+            <a:ext uri="{C807C97D-BFC1-408E-A445-0C87EB9F89A2}">
+              <ask:lineSketchStyleProps xmlns:ask="http://schemas.microsoft.com/office/drawing/2018/sketchyshapes">
+                <ask:type>
+                  <ask:lineSketchNone/>
+                </ask:type>
+              </ask:lineSketchStyleProps>
+            </a:ext>
+          </a:extLst>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-FR" sz="1100">
+            <a:noFill/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>496094</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>128984</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>792499</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>377600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Signe de multiplication 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64ACD52D-896E-4BED-85F2-D0C4F1F71BBD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8770938" y="9177734"/>
+          <a:ext cx="296405" cy="248616"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathMultiply">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="dk1"/>
+        </a:solidFill>
+        <a:ln w="0" cmpd="dbl">
+          <a:gradFill>
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="16000"/>
+                  <a:lumOff val="84000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="83000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="45000"/>
+                  <a:lumOff val="55000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="30000"/>
+                  <a:lumOff val="70000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="1"/>
+          </a:gradFill>
+          <a:extLst>
+            <a:ext uri="{C807C97D-BFC1-408E-A445-0C87EB9F89A2}">
+              <ask:lineSketchStyleProps xmlns:ask="http://schemas.microsoft.com/office/drawing/2018/sketchyshapes">
+                <ask:type>
+                  <ask:lineSketchNone/>
+                </ask:type>
+              </ask:lineSketchStyleProps>
+            </a:ext>
+          </a:extLst>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-FR" sz="1100">
+            <a:noFill/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>496094</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>148828</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>792499</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>397444</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Signe de multiplication 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD5C957C-D27A-4051-A771-70D0D493D766}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10070703" y="9197578"/>
+          <a:ext cx="296405" cy="248616"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathMultiply">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="dk1"/>
+        </a:solidFill>
+        <a:ln w="0" cmpd="dbl">
+          <a:gradFill>
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="16000"/>
+                  <a:lumOff val="84000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="83000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="45000"/>
+                  <a:lumOff val="55000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="30000"/>
+                  <a:lumOff val="70000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="1"/>
+          </a:gradFill>
+          <a:extLst>
+            <a:ext uri="{C807C97D-BFC1-408E-A445-0C87EB9F89A2}">
+              <ask:lineSketchStyleProps xmlns:ask="http://schemas.microsoft.com/office/drawing/2018/sketchyshapes">
+                <ask:type>
+                  <ask:lineSketchNone/>
+                </ask:type>
+              </ask:lineSketchStyleProps>
+            </a:ext>
+          </a:extLst>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-FR" sz="1100">
+            <a:noFill/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>499666</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>142478</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>796071</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>391094</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Signe de multiplication 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B747AD8F-4707-4EB9-904D-AA969CB3BE03}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11374041" y="9191228"/>
+          <a:ext cx="296405" cy="248616"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathMultiply">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="dk1"/>
+        </a:solidFill>
+        <a:ln w="0" cmpd="dbl">
+          <a:gradFill>
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="16000"/>
+                  <a:lumOff val="84000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="83000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="45000"/>
+                  <a:lumOff val="55000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="30000"/>
+                  <a:lumOff val="70000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="1"/>
+          </a:gradFill>
+          <a:extLst>
+            <a:ext uri="{C807C97D-BFC1-408E-A445-0C87EB9F89A2}">
+              <ask:lineSketchStyleProps xmlns:ask="http://schemas.microsoft.com/office/drawing/2018/sketchyshapes">
+                <ask:type>
+                  <ask:lineSketchNone/>
+                </ask:type>
+              </ask:lineSketchStyleProps>
+            </a:ext>
+          </a:extLst>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-FR" sz="1100">
+            <a:noFill/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>515937</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>148829</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>812342</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>397445</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Signe de multiplication 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71221FBE-725F-45D0-8CCE-96B99FE4762F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6191250" y="9197579"/>
+          <a:ext cx="296405" cy="248616"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathMultiply">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="dk1"/>
+        </a:solidFill>
+        <a:ln w="0" cmpd="dbl">
+          <a:gradFill>
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="16000"/>
+                  <a:lumOff val="84000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="83000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="45000"/>
+                  <a:lumOff val="55000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="30000"/>
+                  <a:lumOff val="70000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="1"/>
+          </a:gradFill>
+          <a:extLst>
+            <a:ext uri="{C807C97D-BFC1-408E-A445-0C87EB9F89A2}">
+              <ask:lineSketchStyleProps xmlns:ask="http://schemas.microsoft.com/office/drawing/2018/sketchyshapes">
+                <ask:type>
+                  <ask:lineSketchNone/>
+                </ask:type>
+              </ask:lineSketchStyleProps>
+            </a:ext>
+          </a:extLst>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-FR" sz="1100">
+            <a:noFill/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>506015</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>128984</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>802420</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>377600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Signe de multiplication 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66F51AE4-3634-473C-8A24-89049D2F9737}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6181328" y="11936015"/>
+          <a:ext cx="296405" cy="248616"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathMultiply">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="dk1"/>
+        </a:solidFill>
+        <a:ln w="0" cmpd="dbl">
+          <a:gradFill>
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="16000"/>
+                  <a:lumOff val="84000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="83000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="45000"/>
+                  <a:lumOff val="55000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="30000"/>
+                  <a:lumOff val="70000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="1"/>
+          </a:gradFill>
+          <a:extLst>
+            <a:ext uri="{C807C97D-BFC1-408E-A445-0C87EB9F89A2}">
+              <ask:lineSketchStyleProps xmlns:ask="http://schemas.microsoft.com/office/drawing/2018/sketchyshapes">
+                <ask:type>
+                  <ask:lineSketchNone/>
+                </ask:type>
+              </ask:lineSketchStyleProps>
+            </a:ext>
+          </a:extLst>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-FR" sz="1100">
+            <a:noFill/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>496094</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>138906</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>792499</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>387522</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Signe de multiplication 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{935EA79A-40C0-47C2-9BBA-1A7DC812CA73}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12670235" y="9187656"/>
+          <a:ext cx="296405" cy="248616"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathMultiply">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="dk1"/>
+        </a:solidFill>
+        <a:ln w="0" cmpd="dbl">
+          <a:gradFill>
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="16000"/>
+                  <a:lumOff val="84000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="83000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="45000"/>
+                  <a:lumOff val="55000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="30000"/>
+                  <a:lumOff val="70000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="1"/>
+          </a:gradFill>
+          <a:extLst>
+            <a:ext uri="{C807C97D-BFC1-408E-A445-0C87EB9F89A2}">
+              <ask:lineSketchStyleProps xmlns:ask="http://schemas.microsoft.com/office/drawing/2018/sketchyshapes">
+                <ask:type>
+                  <ask:lineSketchNone/>
+                </ask:type>
+              </ask:lineSketchStyleProps>
+            </a:ext>
+          </a:extLst>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-FR" sz="1100">
+            <a:noFill/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>545704</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>148829</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>842109</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>397445</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Signe de multiplication 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77C6A055-DA4E-45E5-9EFB-CBE9C0DA0F14}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6221017" y="16232188"/>
           <a:ext cx="296405" cy="248616"/>
         </a:xfrm>
         <a:prstGeom prst="mathMultiply">
@@ -2088,10 +2988,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AQ78"/>
+  <dimension ref="A1:AQ77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="64" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:H5"/>
+      <selection activeCell="B6" sqref="B6:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2131,14 +3031,14 @@
     </row>
     <row r="3" spans="1:43" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="37" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B3" s="38"/>
       <c r="C3" s="38"/>
       <c r="D3" s="38"/>
       <c r="E3" s="39"/>
       <c r="F3" s="43" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G3" s="38"/>
       <c r="H3" s="44"/>
@@ -2148,7 +3048,7 @@
     </row>
     <row r="4" spans="1:43" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="40" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B4" s="41"/>
       <c r="C4" s="41"/>
@@ -2166,7 +3066,7 @@
     </row>
     <row r="5" spans="1:43" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="34" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B5" s="35"/>
       <c r="C5" s="35"/>
@@ -2308,7 +3208,7 @@
     </row>
     <row r="9" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="14"/>
@@ -2355,7 +3255,7 @@
     </row>
     <row r="10" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="15"/>
@@ -2364,6 +3264,7 @@
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
       <c r="H10" s="16"/>
+      <c r="I10"/>
       <c r="J10"/>
       <c r="K10"/>
       <c r="L10"/>
@@ -2401,7 +3302,7 @@
     </row>
     <row r="11" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="15"/>
@@ -2581,15 +3482,17 @@
       <c r="AP14"/>
       <c r="AQ14"/>
     </row>
-    <row r="15" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="16"/>
+    <row r="15" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A15" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="31"/>
       <c r="I15"/>
       <c r="J15"/>
       <c r="K15"/>
@@ -2626,17 +3529,17 @@
       <c r="AP15"/>
       <c r="AQ15"/>
     </row>
-    <row r="16" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A16" s="29" t="s">
-        <v>20</v>
+    <row r="16" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>24</v>
       </c>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="31"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="16"/>
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16"/>
@@ -2675,7 +3578,7 @@
     </row>
     <row r="17" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="15"/>
@@ -2905,7 +3808,7 @@
       <c r="B22" s="8"/>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
+      <c r="E22" s="45"/>
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
       <c r="H22" s="16"/>
@@ -2945,15 +3848,17 @@
       <c r="AP22"/>
       <c r="AQ22"/>
     </row>
-    <row r="23" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="16"/>
+    <row r="23" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A23" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="31"/>
       <c r="I23"/>
       <c r="J23"/>
       <c r="K23"/>
@@ -2990,17 +3895,17 @@
       <c r="AP23"/>
       <c r="AQ23"/>
     </row>
-    <row r="24" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A24" s="29" t="s">
-        <v>21</v>
+    <row r="24" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>24</v>
       </c>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="31"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="16"/>
       <c r="I24"/>
       <c r="J24"/>
       <c r="K24"/>
@@ -3039,7 +3944,7 @@
     </row>
     <row r="25" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="15"/>
@@ -3085,7 +3990,9 @@
       <c r="AQ25"/>
     </row>
     <row r="26" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
+      <c r="A26" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="B26" s="8"/>
       <c r="C26" s="15"/>
       <c r="D26" s="15"/>
@@ -3135,7 +4042,7 @@
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
       <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
+      <c r="F27" s="22"/>
       <c r="G27" s="15"/>
       <c r="H27" s="16"/>
       <c r="I27"/>
@@ -3180,8 +4087,7 @@
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
       <c r="E28" s="15"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="15"/>
+      <c r="F28" s="15"/>
       <c r="H28" s="16"/>
       <c r="I28"/>
       <c r="J28"/>
@@ -3226,6 +4132,7 @@
       <c r="D29" s="15"/>
       <c r="E29" s="15"/>
       <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
       <c r="H29" s="16"/>
       <c r="I29"/>
       <c r="J29"/>
@@ -3263,15 +4170,15 @@
       <c r="AP29"/>
       <c r="AQ29"/>
     </row>
-    <row r="30" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="9"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="16"/>
+    <row r="30" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="10"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="18"/>
       <c r="I30"/>
       <c r="J30"/>
       <c r="K30"/>
@@ -3308,15 +4215,15 @@
       <c r="AP30"/>
       <c r="AQ30"/>
     </row>
-    <row r="31" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="10"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="18"/>
+    <row r="31" spans="1:43" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A31" s="5"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
       <c r="I31"/>
       <c r="J31"/>
       <c r="K31"/>
@@ -3353,51 +4260,7 @@
       <c r="AP31"/>
       <c r="AQ31"/>
     </row>
-    <row r="32" spans="1:43" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32"/>
-      <c r="J32"/>
-      <c r="K32"/>
-      <c r="L32"/>
-      <c r="M32"/>
-      <c r="N32"/>
-      <c r="O32"/>
-      <c r="P32"/>
-      <c r="Q32"/>
-      <c r="R32"/>
-      <c r="S32"/>
-      <c r="T32"/>
-      <c r="U32"/>
-      <c r="V32"/>
-      <c r="W32"/>
-      <c r="X32"/>
-      <c r="Y32"/>
-      <c r="Z32"/>
-      <c r="AA32"/>
-      <c r="AB32"/>
-      <c r="AC32"/>
-      <c r="AD32"/>
-      <c r="AE32"/>
-      <c r="AF32"/>
-      <c r="AG32"/>
-      <c r="AH32"/>
-      <c r="AI32"/>
-      <c r="AJ32"/>
-      <c r="AK32"/>
-      <c r="AL32"/>
-      <c r="AM32"/>
-      <c r="AN32"/>
-      <c r="AO32"/>
-      <c r="AP32"/>
-      <c r="AQ32"/>
-    </row>
+    <row r="32" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="33" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="34" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="35" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -3443,7 +4306,6 @@
     <row r="75" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="76" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="77" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="G1:H1"/>
@@ -3454,8 +4316,8 @@
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="A23:H23"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A5:H5"/>
   </mergeCells>
